--- a/medicine/Enfance/Dominique_de_Saint_Mars/Dominique_de_Saint_Mars.xlsx
+++ b/medicine/Enfance/Dominique_de_Saint_Mars/Dominique_de_Saint_Mars.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominique de Saint Mars, née au Maroc le 29 mai 1949, est une scénariste et auteur pour la jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née au Maroc, elle vit à Paris. Elle est mariée à Renaud de Saint Mars et a deux fils et deux petits-enfants.
 </t>
@@ -542,7 +556,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études en sociologie, elle a été journaliste à ASTRAPI aux éditions Bayard-Presse de 1981 à 1996. En 1988, elle reçoit le Prix de la Fondation pour l'Enfance pour ses scenarios de bandes dessinées dans Astrapi, sur les relations parents-enfants, dessinées par Bernadette Després. 
 En parallèle d’Astrapi, elle mène de nombreuses activités sur des sujets concernant la famille, l'éducation, la santé, la sexualité. En 1989 : Elle anime une rubrique " Dis-moi pourquoi ? " dans l'émission " La Planète des Enfants " sur Radio France International. En 1990, elle travaille à une brochure parents-enfants pour le Secrétariat d'Etat à la Famille, sur la Prévention des Abus Sexuels. Le « Permis de prudence » sera diffusé dans toutes les écoles par l’INPES. 
@@ -583,12 +599,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Engagée dans les causes contre la maltraitance et la souffrance psychique, Dominique de Saint Mars est aujourd’hui marraine de l’Oeuvre Falret. 
 En 2017, elle est nommée par la ministre de l’Education Nationale Chevalier de la Légion d’Honneur, et en 2016 elle est nommée par la ministre de la Culture Officier des Arts et des Lettres.
 La première bibliothèque française qui porte son nom est à l'école française de Jungle Samui dans l'île de Koh Samui.
-L'école primaire de Hangest-sur-Somme, en France, porte également son nom[1]. 
+L'école primaire de Hangest-sur-Somme, en France, porte également son nom. 
 </t>
         </is>
       </c>
